--- a/www/IndicatorsPerCountry/Austria_GDPperCapita_TerritorialRef_1955_2012_CCode_40.xlsx
+++ b/www/IndicatorsPerCountry/Austria_GDPperCapita_TerritorialRef_1955_2012_CCode_40.xlsx
@@ -498,13 +498,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Austria_GDPperCapita_TerritorialRef_1955_2012_CCode_40.xlsx
+++ b/www/IndicatorsPerCountry/Austria_GDPperCapita_TerritorialRef_1955_2012_CCode_40.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="170">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,439 +36,457 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1218</t>
+    <t>1941</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>1515</t>
-  </si>
-  <si>
-    <t>1650</t>
-  </si>
-  <si>
-    <t>1778</t>
-  </si>
-  <si>
-    <t>1863</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1913</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>2068</t>
-  </si>
-  <si>
-    <t>2079</t>
-  </si>
-  <si>
-    <t>2145</t>
-  </si>
-  <si>
-    <t>2140</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2248</t>
-  </si>
-  <si>
-    <t>2215</t>
-  </si>
-  <si>
-    <t>2268</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2379</t>
-  </si>
-  <si>
-    <t>2337</t>
-  </si>
-  <si>
-    <t>2443</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2535</t>
-  </si>
-  <si>
-    <t>2525</t>
-  </si>
-  <si>
-    <t>2645</t>
-  </si>
-  <si>
-    <t>2688</t>
-  </si>
-  <si>
-    <t>2701</t>
-  </si>
-  <si>
-    <t>2730</t>
-  </si>
-  <si>
-    <t>2855</t>
-  </si>
-  <si>
-    <t>2886</t>
-  </si>
-  <si>
-    <t>2882</t>
-  </si>
-  <si>
-    <t>2864</t>
-  </si>
-  <si>
-    <t>2945</t>
-  </si>
-  <si>
-    <t>2941</t>
-  </si>
-  <si>
-    <t>2956</t>
-  </si>
-  <si>
-    <t>3090</t>
-  </si>
-  <si>
-    <t>3176</t>
-  </si>
-  <si>
-    <t>3338</t>
-  </si>
-  <si>
-    <t>3320</t>
-  </si>
-  <si>
-    <t>3276</t>
-  </si>
-  <si>
-    <t>3290</t>
-  </si>
-  <si>
-    <t>3365</t>
-  </si>
-  <si>
-    <t>3505</t>
-  </si>
-  <si>
-    <t>3465</t>
-  </si>
-  <si>
-    <t>2876</t>
-  </si>
-  <si>
-    <t>2653</t>
-  </si>
-  <si>
-    <t>2628</t>
-  </si>
-  <si>
-    <t>2586</t>
-  </si>
-  <si>
-    <t>2555</t>
-  </si>
-  <si>
-    <t>2259</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2650</t>
-  </si>
-  <si>
-    <t>2877</t>
-  </si>
-  <si>
-    <t>2842</t>
-  </si>
-  <si>
-    <t>3163</t>
-  </si>
-  <si>
-    <t>3367</t>
-  </si>
-  <si>
-    <t>3413</t>
-  </si>
-  <si>
-    <t>3657</t>
-  </si>
-  <si>
-    <t>3699</t>
-  </si>
-  <si>
-    <t>3586</t>
-  </si>
-  <si>
-    <t>3288</t>
-  </si>
-  <si>
-    <t>2940</t>
-  </si>
-  <si>
-    <t>2833</t>
-  </si>
-  <si>
-    <t>2852</t>
-  </si>
-  <si>
-    <t>2907</t>
-  </si>
-  <si>
-    <t>2995</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>3559</t>
-  </si>
-  <si>
-    <t>4096</t>
-  </si>
-  <si>
-    <t>3959</t>
-  </si>
-  <si>
-    <t>4217</t>
-  </si>
-  <si>
-    <t>3983</t>
-  </si>
-  <si>
-    <t>4065</t>
-  </si>
-  <si>
-    <t>4152</t>
-  </si>
-  <si>
-    <t>1725</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>2166</t>
-  </si>
-  <si>
-    <t>2764</t>
-  </si>
-  <si>
-    <t>3293</t>
-  </si>
-  <si>
-    <t>3706</t>
-  </si>
-  <si>
-    <t>3967</t>
-  </si>
-  <si>
-    <t>4137</t>
-  </si>
-  <si>
-    <t>4555</t>
-  </si>
-  <si>
-    <t>5053</t>
-  </si>
-  <si>
-    <t>5397</t>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>2415</t>
+  </si>
+  <si>
+    <t>2630</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>2970</t>
+  </si>
+  <si>
+    <t>3154</t>
+  </si>
+  <si>
+    <t>3150</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>3158</t>
+  </si>
+  <si>
+    <t>3145</t>
+  </si>
+  <si>
+    <t>3188</t>
+  </si>
+  <si>
+    <t>3268</t>
+  </si>
+  <si>
+    <t>3347</t>
+  </si>
+  <si>
+    <t>3296</t>
+  </si>
+  <si>
+    <t>3314</t>
+  </si>
+  <si>
+    <t>3419</t>
+  </si>
+  <si>
+    <t>3411</t>
+  </si>
+  <si>
+    <t>3521</t>
+  </si>
+  <si>
+    <t>3583</t>
+  </si>
+  <si>
+    <t>3531</t>
+  </si>
+  <si>
+    <t>3615</t>
+  </si>
+  <si>
+    <t>3832</t>
+  </si>
+  <si>
+    <t>3792</t>
+  </si>
+  <si>
+    <t>3725</t>
+  </si>
+  <si>
+    <t>3894</t>
+  </si>
+  <si>
+    <t>3995</t>
+  </si>
+  <si>
+    <t>4041</t>
+  </si>
+  <si>
+    <t>4025</t>
+  </si>
+  <si>
+    <t>4216</t>
+  </si>
+  <si>
+    <t>4285</t>
+  </si>
+  <si>
+    <t>4305</t>
+  </si>
+  <si>
+    <t>4352</t>
+  </si>
+  <si>
+    <t>4551</t>
+  </si>
+  <si>
+    <t>4600</t>
+  </si>
+  <si>
+    <t>4594</t>
+  </si>
+  <si>
+    <t>4565</t>
+  </si>
+  <si>
+    <t>4694</t>
+  </si>
+  <si>
+    <t>4688</t>
+  </si>
+  <si>
+    <t>4712</t>
+  </si>
+  <si>
+    <t>4925</t>
+  </si>
+  <si>
+    <t>5062</t>
+  </si>
+  <si>
+    <t>5321</t>
+  </si>
+  <si>
+    <t>5292</t>
+  </si>
+  <si>
+    <t>5222</t>
+  </si>
+  <si>
+    <t>5244</t>
+  </si>
+  <si>
+    <t>5364</t>
+  </si>
+  <si>
+    <t>5587</t>
+  </si>
+  <si>
+    <t>5523</t>
+  </si>
+  <si>
+    <t>4584</t>
+  </si>
+  <si>
+    <t>4229</t>
+  </si>
+  <si>
+    <t>4189</t>
+  </si>
+  <si>
+    <t>4122</t>
+  </si>
+  <si>
+    <t>4073</t>
+  </si>
+  <si>
+    <t>3601</t>
+  </si>
+  <si>
+    <t>3845</t>
+  </si>
+  <si>
+    <t>4224</t>
+  </si>
+  <si>
+    <t>4586</t>
+  </si>
+  <si>
+    <t>4530</t>
+  </si>
+  <si>
+    <t>5042</t>
+  </si>
+  <si>
+    <t>5367</t>
+  </si>
+  <si>
+    <t>5440</t>
+  </si>
+  <si>
+    <t>5829</t>
+  </si>
+  <si>
+    <t>5896</t>
   </si>
   <si>
     <t>5716</t>
   </si>
   <si>
+    <t>5241</t>
+  </si>
+  <si>
+    <t>4686</t>
+  </si>
+  <si>
+    <t>4516</t>
+  </si>
+  <si>
+    <t>4546</t>
+  </si>
+  <si>
+    <t>4634</t>
+  </si>
+  <si>
+    <t>4774</t>
+  </si>
+  <si>
+    <t>5031</t>
+  </si>
+  <si>
+    <t>5673</t>
+  </si>
+  <si>
+    <t>6529</t>
+  </si>
+  <si>
+    <t>6311</t>
+  </si>
+  <si>
+    <t>6722</t>
+  </si>
+  <si>
+    <t>6349</t>
+  </si>
+  <si>
+    <t>6480</t>
+  </si>
+  <si>
+    <t>6618</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>3118</t>
+  </si>
+  <si>
+    <t>3453</t>
+  </si>
+  <si>
+    <t>4406</t>
+  </si>
+  <si>
+    <t>5249</t>
+  </si>
+  <si>
     <t>5907</t>
   </si>
   <si>
-    <t>6051</t>
-  </si>
-  <si>
-    <t>6519</t>
-  </si>
-  <si>
-    <t>6827</t>
-  </si>
-  <si>
-    <t>6950</t>
-  </si>
-  <si>
-    <t>7186</t>
-  </si>
-  <si>
-    <t>7567</t>
-  </si>
-  <si>
-    <t>7734</t>
-  </si>
-  <si>
-    <t>8112</t>
-  </si>
-  <si>
-    <t>8297</t>
-  </si>
-  <si>
-    <t>8621</t>
-  </si>
-  <si>
-    <t>9131</t>
-  </si>
-  <si>
-    <t>9747</t>
-  </si>
-  <si>
-    <t>10200</t>
-  </si>
-  <si>
-    <t>10771</t>
-  </si>
-  <si>
-    <t>11235</t>
-  </si>
-  <si>
-    <t>11658</t>
-  </si>
-  <si>
-    <t>11646</t>
-  </si>
-  <si>
-    <t>12201</t>
-  </si>
-  <si>
-    <t>12767</t>
-  </si>
-  <si>
-    <t>12731</t>
-  </si>
-  <si>
-    <t>13448</t>
-  </si>
-  <si>
-    <t>13759</t>
-  </si>
-  <si>
-    <t>13718</t>
-  </si>
-  <si>
-    <t>13961</t>
-  </si>
-  <si>
-    <t>14394</t>
-  </si>
-  <si>
-    <t>14439</t>
-  </si>
-  <si>
-    <t>14752</t>
-  </si>
-  <si>
-    <t>15081</t>
-  </si>
-  <si>
-    <t>15313</t>
-  </si>
-  <si>
-    <t>15754</t>
-  </si>
-  <si>
-    <t>16360</t>
-  </si>
-  <si>
-    <t>16894.5804388</t>
-  </si>
-  <si>
-    <t>17262.6310687</t>
-  </si>
-  <si>
-    <t>17409.0426117</t>
-  </si>
-  <si>
-    <t>17339.4537216</t>
-  </si>
-  <si>
-    <t>17669.8365875</t>
-  </si>
-  <si>
-    <t>18096.4270581</t>
-  </si>
-  <si>
-    <t>18511.9311239</t>
-  </si>
-  <si>
-    <t>18918.1623519</t>
-  </si>
-  <si>
-    <t>19613.0762432</t>
-  </si>
-  <si>
-    <t>20268.2193087</t>
-  </si>
-  <si>
-    <t>20961.7226296</t>
-  </si>
-  <si>
-    <t>21093.9226655</t>
-  </si>
-  <si>
-    <t>21407.4427703</t>
-  </si>
-  <si>
-    <t>21554.8534424</t>
-  </si>
-  <si>
-    <t>22080.303275</t>
-  </si>
-  <si>
-    <t>22582.9469412</t>
-  </si>
-  <si>
-    <t>23388.2908086</t>
-  </si>
-  <si>
-    <t>24234.6380025</t>
-  </si>
-  <si>
-    <t>24565.4844964</t>
-  </si>
-  <si>
-    <t>23622.5816903</t>
-  </si>
-  <si>
-    <t>24095.6762469</t>
+    <t>6323</t>
+  </si>
+  <si>
+    <t>6594</t>
+  </si>
+  <si>
+    <t>7261</t>
+  </si>
+  <si>
+    <t>8054</t>
+  </si>
+  <si>
+    <t>8603</t>
+  </si>
+  <si>
+    <t>9111</t>
+  </si>
+  <si>
+    <t>9416</t>
+  </si>
+  <si>
+    <t>9645</t>
+  </si>
+  <si>
+    <t>10391</t>
+  </si>
+  <si>
+    <t>10882</t>
+  </si>
+  <si>
+    <t>11078</t>
+  </si>
+  <si>
+    <t>11454</t>
+  </si>
+  <si>
+    <t>12062</t>
+  </si>
+  <si>
+    <t>12328</t>
+  </si>
+  <si>
+    <t>12930</t>
+  </si>
+  <si>
+    <t>13225</t>
+  </si>
+  <si>
+    <t>13742</t>
+  </si>
+  <si>
+    <t>14555</t>
+  </si>
+  <si>
+    <t>15537</t>
+  </si>
+  <si>
+    <t>16259</t>
+  </si>
+  <si>
+    <t>17169</t>
+  </si>
+  <si>
+    <t>17908</t>
+  </si>
+  <si>
+    <t>18583</t>
+  </si>
+  <si>
+    <t>18564</t>
+  </si>
+  <si>
+    <t>19448</t>
+  </si>
+  <si>
+    <t>20350</t>
+  </si>
+  <si>
+    <t>20293</t>
+  </si>
+  <si>
+    <t>21436</t>
+  </si>
+  <si>
+    <t>21932</t>
+  </si>
+  <si>
+    <t>21866</t>
+  </si>
+  <si>
+    <t>22254</t>
+  </si>
+  <si>
+    <t>22944</t>
+  </si>
+  <si>
+    <t>23016</t>
+  </si>
+  <si>
+    <t>23514</t>
+  </si>
+  <si>
+    <t>24039</t>
+  </si>
+  <si>
+    <t>24409</t>
+  </si>
+  <si>
+    <t>25112</t>
+  </si>
+  <si>
+    <t>26078</t>
+  </si>
+  <si>
+    <t>26930</t>
+  </si>
+  <si>
+    <t>27689.7712735808</t>
+  </si>
+  <si>
+    <t>28072.4403464979</t>
+  </si>
+  <si>
+    <t>28101.2286371651</t>
+  </si>
+  <si>
+    <t>28780.7603897884</t>
+  </si>
+  <si>
+    <t>29621.6819241716</t>
+  </si>
+  <si>
+    <t>30413.1566935755</t>
+  </si>
+  <si>
+    <t>31173.0487744938</t>
+  </si>
+  <si>
+    <t>32376.329513091</t>
+  </si>
+  <si>
+    <t>33608.2965466276</t>
+  </si>
+  <si>
+    <t>34796.259482554</t>
+  </si>
+  <si>
+    <t>35272.223953776</t>
+  </si>
+  <si>
+    <t>35823.5873741604</t>
+  </si>
+  <si>
+    <t>36063.1204896524</t>
+  </si>
+  <si>
+    <t>36957.1122496145</t>
+  </si>
+  <si>
+    <t>37642.7621500192</t>
+  </si>
+  <si>
+    <t>38866.8493387811</t>
+  </si>
+  <si>
+    <t>40305.2743067797</t>
+  </si>
+  <si>
+    <t>40964.793352369</t>
+  </si>
+  <si>
+    <t>39463.6569569054</t>
+  </si>
+  <si>
+    <t>40288.3492939002</t>
+  </si>
+  <si>
+    <t>41446</t>
+  </si>
+  <si>
+    <t>41565</t>
+  </si>
+  <si>
+    <t>41375</t>
+  </si>
+  <si>
+    <t>41338</t>
+  </si>
+  <si>
+    <t>41294</t>
+  </si>
+  <si>
+    <t>41445</t>
   </si>
   <si>
     <t>Description</t>
@@ -3819,6 +3837,108 @@
         <v>151</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3834,50 +3954,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
